--- a/MIS/蓝/数据字典.xlsx
+++ b/MIS/蓝/数据字典.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2075221336\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40AA752-A62D-43BC-A433-0A36517367E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D67DE0-9478-4833-B32D-866FA3F2CAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E107658D-73FC-4D58-AF76-55586743E5FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
   <si>
     <t>数据项</t>
   </si>
@@ -421,6 +421,10 @@
   </si>
   <si>
     <t>BIGINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队执行项目</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -807,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE177B7C-C351-4135-9A99-14DDB542438B}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D54"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1379,15 +1383,15 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
@@ -1395,11 +1399,11 @@
       <c r="E35">
         <v>10</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" t="s">
         <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1424,7 +1428,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1469,7 +1473,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1494,10 +1498,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
         <v>34</v>
@@ -1509,12 +1513,12 @@
         <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1559,7 +1563,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1584,35 +1588,35 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="E48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
         <v>34</v>
@@ -1620,11 +1624,11 @@
       <c r="E50">
         <v>10</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1649,15 +1653,15 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D53" t="s">
         <v>34</v>
@@ -1669,7 +1673,7 @@
         <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1694,6 +1698,51 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>99</v>
       </c>
     </row>

--- a/MIS/蓝/数据字典.xlsx
+++ b/MIS/蓝/数据字典.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2075221336\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paper\vscode\git\PythonDataAnalyze\MIS\蓝\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E40B70-4C18-4CF2-AAAE-5D7F38A7490A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3039BFE8-09B1-4C4B-A889-1E88A6FF4987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5184" yWindow="816" windowWidth="11364" windowHeight="12360" xr2:uid="{E107658D-73FC-4D58-AF76-55586743E5FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E107658D-73FC-4D58-AF76-55586743E5FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,11 +434,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>容易，非空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>取值范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于8位，同时有数字，小写字母和大写字母</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE177B7C-C351-4135-9A99-14DDB542438B}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -824,7 +824,7 @@
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -842,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -907,7 +907,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
